--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560340/JX560340_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560340/JX560340_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89315333454</v>
+        <v>45441.8334259544</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1370t&gt;g']</t>
+          <t>['1345_1448insggatctcctgttcgtaagggcgttaaagaaaggggcatctgtgcgttgttcctgagtgtctaggagctaagtgatagtgtgagttgggccggggaaagtcatc', '1452_1564del', '1489_1625instatccaggttctcattcttagtcgttcaatggccaactgtagcataagagaccgaattgatttgcatcccctgaggcggtagtagagcccccgccgattcctggactgacttcagttatggacaactctaaatgtt', '1527_1619instatgtggaccgcagactgggccggatgcggtactttgcgtcgatgacaatacccagacgtccaccattttatcggttagcacggcttgtacg', '1428_1571del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89315336927</v>
+        <v>45441.83342598912</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['230_234inscgaa']</t>
+          <t>['208_245del', '161_209inscatagtataccagaaggctattattcccccccgtttgagctgattgac', '197_254insaagatggaaattggtttgaccgataaccgttgcgatgggcctaggtgaatcagaaac', '252_265insacttaatgcataa', '235_376insggaagaggtcattaatcccaagcttttagccccctaactcgtgtcatgattgagtgtctagatgattcggctctctcaggtgcgctagcgtagcagaaaaaagcagggatgagcgttttaccaaacggccgatgatctgat']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8931533924</v>
+        <v>45441.83342601806</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['5284a&gt;t']</t>
+          <t>['5307_5378insaccagtaacttctgtgtggtaatttgacacggaccttcttctgtttgcccccgcagggctcgacgtagtga', '5329_5464insaggggaaattggacccagtaactacgtccttgcccatcgacttgcgtgtgaggcccctacggtttgcaaaatattattggatctgcacgcaagttccccgccatcccaggaacgtagggacacgcacaaatcaat', '5296_5352del', '5261_5367instaagccgtgtggatggtgcgccggagcggtggtttctagtcgaatgtgactttccggtagtgaagccgaccttatgtcattaggacctcagagcttatggaagcaa', '5294_5328insaaggctccctaaacggagtgagaaaggcccctca']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.8931535231</v>
+        <v>45441.83342604817</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1322_1325del']</t>
+          <t>['1484_1574del', '1355_1495insgacgtagagttgtaggtgagtgtgatcagagtcccctttcatagtgcaggacatgagaccctgcctagtcgtcaggggaacgctcgacagctacacagaattaccgtagtcccgacacagaatcattcaattcgctgaag', '1433_1578inscaattccaaagaccggtggtcggggtccgtagtcgagcttctggttgttcttgcaggaaccactggatcattacttcactcggagtcagataaagcggggttagcgtcagctcggctcggtttattaaacgacatacttcgtcct', '1292_1302del', '1367_1413insagtagatgacatatttgaattagcgggtaccgcggctatagaagcc']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['247_250del']</t>
+          <t>['247_336inscagcactaaactgttagattcatggtcctgatcgttcccgattaaaagccttaatcctacacgaggctagtctgttctttactggaggt', '155_208insagcctacttatcgtacgcgacttcattgaacgtccgcgcgtcattatacgcta', '191_268insgcctgagttgaataacgagtggcggtcttgatggagctgagcaggcaagtcatttggtcatggcagagggcaaatac', '198_216insagaagcagacggggtata', '251_334insactttcgagcgagggatgaaatactgctgtccacaggtgtgaggacttctatctcagcttgcaaatataagtgttgagtggga']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89315355202</v>
+        <v>45441.83342608289</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1440_1444insctga']</t>
+          <t>['1502_1527insaatagtttgatagccgagcctgagt', '1375_1509del', '1330_1424insggtcgtttcaatccggcctacgtggtcaggaggacagtaagtctgttcagatcattaccactggcggtggaagagccctttgttagagcaatca', '1522_1633instacctcccgggtgaaatttagtcatacccgtggtgggtactaggagaagggttagcagcctagaaaaagggaatctaacactgtacggcgtcggatctatataacaagaac', '1397_1432instggggactgctataaaacgtatgttacaggacaga']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['5248_5251inscgt']</t>
+          <t>['5290_5390del', '5334_5424del', '5300_5381instcttgggaaactaatatcttcagtacatgcttcttcgaagtcctattcaggggccgggttgggttcgtatatgcatgttga', '5232_5332del', '5308_5347del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89315358098</v>
+        <v>45441.83342611183</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['161_164insacc']</t>
+          <t>['197_328instctcattagggattgcatacgacgtcagtacggatgcttgtgctttctgaacgctaaatggagcctcatccaagaagccattagtaacatcgccctcaatttgagagaagtatggcgtaggggtccaaatg', '167_274del', '190_316del', '184_298inscccacgtttattcttcatgtaagacctgcaaacaacttcccccacagatctgaaatctgcacggtcgggcaacttattcgttagccagccctccatccaattgtccagaggctt', '203_299del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['5244t&gt;c']</t>
+          <t>['5253_5322del', '5315_5386del', '5238_5344instagaaaatgaaaggatcctgtcgccggataaaatagaggtcgcccgcacgggcccctgtttagtgcttacgatggccagctccttcaagctccgggcgcgtgtgta', '5302_5448instcctaggtccatcaactattcattcttcaacttcagcggacagtatgccaggtcgaaccggttagacctttgttcgatattgttgggatattgaccagcagggagttcattcgttctcagcatccggggcgcccacccgtggctta', '5251_5349del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89315360992</v>
+        <v>45441.83342614074</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1338_1340insct']</t>
+          <t>['1391_1460del', '1499_1574instaacggctaattttattattccatctgccttaagattctatgggcctagattagggtactcgtcaatggtctcac', '1357_1460del', '1401_1528del', '1483_1510instgatctcaatgaagatgcaatccattt']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['153t&gt;a']</t>
+          <t>['160_246del', '162_297del', '216_365del', '199_208del', '203_306del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['5293_5296insccg']</t>
+          <t>['5233_5285del', '5269_5341inscgcttcagcggagactataactcgctgatatgtcctcttaacaaagaatgagtcaagtggaatcgcagctga', '5262_5353insgttcactgccgggccctacgcgccggtcttgcctataggacctcgtatgtcgaatgcttcctctaaagtaagctagtccttaatcctggag', '5232_5381insgctgacagacaccgctcaataaaatgggaatatcgacctgttctcagggcggcaaatagtgcccgtagaggagattcagcgaatactttatttgttcctttgagaattgtatgtcccgcgactacctccggatcatttatctcgggcgg', '5334_5473insgtctacccttttcttgatccgtccctgataccgtacgtggtcccttctgaacgagtactggtatttcgcgcaaggaaacgcaatcgttttgcccacgtccgaaaatgggagcgatatagctgagccactccccggtagt']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89315363306</v>
+        <v>45441.83342616967</v>
       </c>
     </row>
   </sheetData>
